--- a/Templates/StudentProfile.xlsx
+++ b/Templates/StudentProfile.xlsx
@@ -1,41 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clfilho/Dropbox (Personal)/Rec-Auto/Python Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEFA378-EE7B-324A-80B8-64EA615287F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD75FA87-E99B-2745-8583-17A07C52F8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{8A1CF855-2C5B-F149-936A-A90AA29A5A87}"/>
+    <workbookView xWindow="-37080" yWindow="460" windowWidth="33600" windowHeight="20500" xr2:uid="{8A1CF855-2C5B-F149-936A-A90AA29A5A87}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Student Profile" sheetId="1" r:id="rId1"/>
+    <sheet name="DB" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="trais" localSheetId="1">DB!$A$1:$B$54</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{90A4ADFB-D23A-FC49-84DE-F31391476C33}" name="trais" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr sourceFile="/Users/clfilho/Dropbox (Personal)/Rec-Auto/Python Script/trais.txt" tab="0" delimiter=":">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="116">
   <si>
     <t>First Name:</t>
   </si>
@@ -50,9 +57,6 @@
   </si>
   <si>
     <t>None</t>
-  </si>
-  <si>
-    <t>Please Mark with X if the following Applies to the Student -&gt;</t>
   </si>
   <si>
     <t>altruistic</t>
@@ -250,12 +254,6 @@
     <t>Academic Skills (Please select up to 6):</t>
   </si>
   <si>
-    <t>Student information:</t>
-  </si>
-  <si>
-    <t>Please Write it here -&gt;</t>
-  </si>
-  <si>
     <r>
       <t>Pronounm:</t>
     </r>
@@ -272,9 +270,6 @@
     </r>
   </si>
   <si>
-    <t>he</t>
-  </si>
-  <si>
     <t>Purpose of the Letter:</t>
   </si>
   <si>
@@ -284,25 +279,16 @@
     <t>Scholarship Program</t>
   </si>
   <si>
-    <t>Anand</t>
-  </si>
-  <si>
-    <t>Pranav</t>
-  </si>
-  <si>
     <t>AP Environmental Science</t>
   </si>
   <si>
+    <t>2021/2022</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
-    <t>Please Mark with X which one applies -&gt;</t>
-  </si>
-  <si>
     <t>Other(type here)</t>
-  </si>
-  <si>
-    <t>Junior</t>
   </si>
   <si>
     <r>
@@ -321,19 +307,164 @@
     </r>
   </si>
   <si>
+    <t>2018/2019</t>
+  </si>
+  <si>
     <t>2020/2021</t>
   </si>
   <si>
-    <t>Targetted Institution</t>
-  </si>
-  <si>
-    <t>James E. Roberts Engineering</t>
-  </si>
-  <si>
     <t>College</t>
   </si>
   <si>
     <t>University</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Targetted Institution </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(e.g MIT)</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;- Please Write it here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teacher's Name: </t>
+  </si>
+  <si>
+    <t>Natalia Fernandes Rossi</t>
+  </si>
+  <si>
+    <t>&lt;- Please Mark with X which one applies</t>
+  </si>
+  <si>
+    <t>&lt;- Please Mark with X which ones apply</t>
+  </si>
+  <si>
+    <t>PositivePersonalityTraits</t>
+  </si>
+  <si>
+    <t>dedicates a lof of time helping others</t>
+  </si>
+  <si>
+    <t>is always friendly and pleasant with me and the other students</t>
+  </si>
+  <si>
+    <t>frequently demonstrates the ability to speak fluently and coherently</t>
+  </si>
+  <si>
+    <t>is exceptionally clever and talented always striving for the best results</t>
+  </si>
+  <si>
+    <t>is very quick at learning new concepts and ideas</t>
+  </si>
+  <si>
+    <t>dedicates a lot of time to study always aiming to achieve good grades and be in the top of the class</t>
+  </si>
+  <si>
+    <t>delivers homework and assignments in time, very deserving of trust</t>
+  </si>
+  <si>
+    <t>shows determination to get things done not allowing any difficulties get in the way</t>
+  </si>
+  <si>
+    <t>shows intense interest for our class activities and concepts that we learn in class</t>
+  </si>
+  <si>
+    <t>reacts well to set backs and is able to adapt to new situations quickly</t>
+  </si>
+  <si>
+    <t>gives full attention during lectures and class activities, avoiding distractions</t>
+  </si>
+  <si>
+    <t>shares knowledge with other students and makes sure classmates are participating and learning the material as well</t>
+  </si>
+  <si>
+    <t>admits own actions and share sincere opinions and ideas without being hurtful</t>
+  </si>
+  <si>
+    <t>make sure other students are also participating in activities and help to organize the classroom</t>
+  </si>
+  <si>
+    <t>AcademicSkills</t>
+  </si>
+  <si>
+    <t>even in the face of adversity, puts a lot of commitment to honesty, trust, fairness, respect, responsibility, and courage</t>
+  </si>
+  <si>
+    <t>is exceptionally clever and talented, always striving for the best results</t>
+  </si>
+  <si>
+    <t>dedicates a lot of time to study, always aiming to achieve good grades and be in the top of the class</t>
+  </si>
+  <si>
+    <t>participates in all individual and group activities and discussions</t>
+  </si>
+  <si>
+    <t>has the the ability to handle difficult or unexpected situations, finding more than one solution to a problem</t>
+  </si>
+  <si>
+    <t>is motivated to get things done, always presenting a lot of enthusiasm and interest on studies or projects without needing pressure</t>
+  </si>
+  <si>
+    <t>is a a person who strives to do the best for the team, always at ease while working with other students, co-operating with them, whenever leading or taking instructions from others</t>
+  </si>
+  <si>
+    <t>is very goal oriented, likes to serve others and take the lead into projects or stepping-up as a team leader while in class</t>
+  </si>
+  <si>
+    <t>even in the face of adversity, is highly adaptable to the new environment, demonstrating a lot of flexibility and ability to cope with change with grace</t>
+  </si>
+  <si>
+    <t>is very diligent in laboring and puts a lot of effort into doing and completing tasks, including homework, projects, and participating in class activities</t>
+  </si>
+  <si>
+    <t>has the ability to solve problems or tasks in a creative way, by means of generating many original ideas, carrying distictive cognitive traits and nonconformist behavior</t>
+  </si>
+  <si>
+    <t>constantly demonstrates having the ability to use various concepts with their meanings, to make inferences by making suggestions and to make reasoning by focusing on problem solving based on logical thinking</t>
+  </si>
+  <si>
+    <t>has the ability to deliver information to different kinds of audiences in an effective and engaging manner</t>
+  </si>
+  <si>
+    <t>gets high marks and good grades. Usually goes beyond the work that is required and does it very well. Usually the work is well-organized, neat and delivered on time</t>
+  </si>
+  <si>
+    <t>is always very confident when answering questions</t>
+  </si>
+  <si>
+    <t>is a big picture thinker, asks a lot of good questions making connections with other facts and tries to learn a lot about the subject</t>
+  </si>
+  <si>
+    <t>is very indulgent, considerate and always providing help to whoever is in need</t>
+  </si>
+  <si>
+    <t>enjoys applying logical reasoning to solve problems, is very data driven and adepts at recognizing patterns</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>Abeer</t>
+  </si>
+  <si>
+    <t>Bajpai</t>
+  </si>
+  <si>
+    <t>MIT</t>
   </si>
 </sst>
 </file>
@@ -427,23 +558,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -461,6 +593,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="trais" connectionId="1" xr16:uid="{D863A13F-6A68-8144-BEAC-4B29DB6D4415}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -760,524 +896,895 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF65202-81E2-7743-AF86-81EEEFE6CD76}">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="40.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="34.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="1.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="E7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="9"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="9"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="B28" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>69</v>
+      <c r="B32" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="B33" s="7"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B34" s="7"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="B35" s="7"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="B36" s="7"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="B37" s="7"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="B42" s="7"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="B43" s="7"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="B51" s="7"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="B52" s="7"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B53" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="B53" s="7"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="B54" s="7"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="B55" s="7"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B56" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="B56" s="7"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="B57" s="7"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="B58" s="7"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="B59" s="7"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="B60" s="7"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61" s="9"/>
+      <c r="A61" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="7"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B66" s="9"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="B67" s="7"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B67" s="9"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="B68" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="B69" s="7"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="9"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="B70" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="B71" s="7"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B71" s="9"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="B72" s="7"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="B73" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B73" s="9"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="B74" s="7"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="B75" s="7"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B75" s="9"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="B76" s="7"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B76" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="B77" s="7"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B77" s="9"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="B78" s="7"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B79" s="9"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B80" s="9"/>
+      <c r="B79" s="7"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35C1360-9693-9748-9CDB-F352101AFB89}">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView zoomScale="161" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="178.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Templates/StudentProfile.xlsx
+++ b/Templates/StudentProfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clfilho/Dropbox (Personal)/Rec-Auto/Python Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD75FA87-E99B-2745-8583-17A07C52F8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9F8923-C82A-7F4F-B6E2-BFCBDC85C536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37080" yWindow="460" windowWidth="33600" windowHeight="20500" xr2:uid="{8A1CF855-2C5B-F149-936A-A90AA29A5A87}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="117">
   <si>
     <t>First Name:</t>
   </si>
@@ -452,19 +452,22 @@
     <t>enjoys applying logical reasoning to solve problems, is very data driven and adepts at recognizing patterns</t>
   </si>
   <si>
-    <t>he</t>
-  </si>
-  <si>
     <t>Junior</t>
   </si>
   <si>
-    <t>Abeer</t>
-  </si>
-  <si>
-    <t>Bajpai</t>
-  </si>
-  <si>
     <t>MIT</t>
+  </si>
+  <si>
+    <t>&lt;- Add a Space here if no instituiton is required</t>
+  </si>
+  <si>
+    <t>she</t>
+  </si>
+  <si>
+    <t>Onebeer</t>
+  </si>
+  <si>
+    <t>Moreplease</t>
   </si>
 </sst>
 </file>
@@ -899,14 +902,14 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="40.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.33203125" style="2" customWidth="1"/>
@@ -933,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -941,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -950,7 +953,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C5" s="4"/>
     </row>
@@ -986,7 +989,7 @@
         <v>66</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="4"/>
     </row>
@@ -995,9 +998,11 @@
         <v>71</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
